--- a/Design/Excel/GameHot/Datas/__enums__ESkill.xlsx
+++ b/Design/Excel/GameHot/Datas/__enums__ESkill.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -90,6 +90,36 @@
   </si>
   <si>
     <t>c,s</t>
+  </si>
+  <si>
+    <t>Zhan</t>
+  </si>
+  <si>
+    <t>斩</t>
+  </si>
+  <si>
+    <t>Sao</t>
+  </si>
+  <si>
+    <t>扫</t>
+  </si>
+  <si>
+    <t>Ci</t>
+  </si>
+  <si>
+    <t>刺</t>
+  </si>
+  <si>
+    <t>Da</t>
+  </si>
+  <si>
+    <t>打</t>
+  </si>
+  <si>
+    <t>Shan</t>
+  </si>
+  <si>
+    <t>闪</t>
   </si>
   <si>
     <t>QiJinQiChu</t>
@@ -1085,13 +1115,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6.58333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.3333333333333" style="2" customWidth="1"/>
@@ -1197,7 +1227,7 @@
       <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -1210,6 +1240,46 @@
       </c>
       <c r="I5" s="2" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="8:9">
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="8:9">
+      <c r="H7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="8:9">
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="8:9">
+      <c r="H9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="8:9">
+      <c r="H10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Design/Excel/GameHot/Datas/__enums__ESkill.xlsx
+++ b/Design/Excel/GameHot/Datas/__enums__ESkill.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowWidth="21000" windowHeight="17200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -92,28 +92,10 @@
     <t>c,s</t>
   </si>
   <si>
-    <t>Zhan</t>
-  </si>
-  <si>
-    <t>斩</t>
-  </si>
-  <si>
-    <t>Sao</t>
-  </si>
-  <si>
-    <t>扫</t>
-  </si>
-  <si>
-    <t>Ci</t>
-  </si>
-  <si>
-    <t>刺</t>
-  </si>
-  <si>
-    <t>Da</t>
-  </si>
-  <si>
-    <t>打</t>
+    <t>Sha</t>
+  </si>
+  <si>
+    <t>杀</t>
   </si>
   <si>
     <t>Shan</t>
@@ -1115,13 +1097,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="6.58333333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.3333333333333" style="2" customWidth="1"/>
@@ -1243,7 +1225,7 @@
       </c>
     </row>
     <row r="6" spans="8:9">
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -1256,30 +1238,6 @@
       </c>
       <c r="I7" s="2" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="8:9">
-      <c r="H8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="8:9">
-      <c r="H9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="8:9">
-      <c r="H10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
